--- a/Code/Results/Cases/Case_1_130/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_130/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.9034141370974</v>
+        <v>3.274017668686611</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8610792315842275</v>
+        <v>0.2710941420829158</v>
       </c>
       <c r="E2">
-        <v>0.5982721588150497</v>
+        <v>0.1598654156039032</v>
       </c>
       <c r="F2">
-        <v>5.423659694953017</v>
+        <v>5.80377835155889</v>
       </c>
       <c r="G2">
-        <v>0.0007648233173553509</v>
+        <v>0.002665353917939985</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5778005361839575</v>
+        <v>0.1588548528935405</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.950718050463365</v>
+        <v>1.770097524809216</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.926307683297086</v>
+        <v>2.177618771485403</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.409623544631359</v>
+        <v>3.181425018440905</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7285697817507923</v>
+        <v>0.242474539260229</v>
       </c>
       <c r="E3">
-        <v>0.5081143064107252</v>
+        <v>0.1389773348360919</v>
       </c>
       <c r="F3">
-        <v>4.829119786464815</v>
+        <v>5.727974780105598</v>
       </c>
       <c r="G3">
-        <v>0.0007840972902559294</v>
+        <v>0.00267629775453989</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.495609815071191</v>
+        <v>0.1388565524998455</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.537813585677469</v>
+        <v>1.68881301134553</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.014857582837053</v>
+        <v>2.207974208628858</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.11725977792878</v>
+        <v>3.126601116329141</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.6509309203285056</v>
+        <v>0.2250934461947907</v>
       </c>
       <c r="E4">
-        <v>0.4548744033641299</v>
+        <v>0.1261987174310235</v>
       </c>
       <c r="F4">
-        <v>4.487131814086922</v>
+        <v>5.685594491156053</v>
       </c>
       <c r="G4">
-        <v>0.0007960353205835689</v>
+        <v>0.002683356131724709</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4468115420083478</v>
+        <v>0.1265694494395433</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.293925890063889</v>
+        <v>1.640109468778036</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.071132641815272</v>
+        <v>2.227450041071972</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.000413754211195</v>
+        <v>3.104765837960485</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.6200566259364848</v>
+        <v>0.218056357906903</v>
       </c>
       <c r="E5">
-        <v>0.4336076084419602</v>
+        <v>0.1210017800359893</v>
       </c>
       <c r="F5">
-        <v>4.352697664309716</v>
+        <v>5.669359958579889</v>
       </c>
       <c r="G5">
-        <v>0.0008009380712307569</v>
+        <v>0.002686318072468217</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.427259439173767</v>
+        <v>0.1215593185319364</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.196544766369897</v>
+        <v>1.620560928572331</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.094524099605213</v>
+        <v>2.235596785296302</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.981138925225821</v>
+        <v>3.10117054362496</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6149716603158595</v>
+        <v>0.2168905576006352</v>
       </c>
       <c r="E6">
-        <v>0.4300994903231299</v>
+        <v>0.1201394263107431</v>
       </c>
       <c r="F6">
-        <v>4.33064990596796</v>
+        <v>5.666726464126214</v>
       </c>
       <c r="G6">
-        <v>0.0008017547678746728</v>
+        <v>0.002686815081825156</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4240307552791478</v>
+        <v>0.1207271776583525</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.180484893629057</v>
+        <v>1.617332808472526</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.09843541998826</v>
+        <v>2.236962229036664</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.115675176517243</v>
+        <v>3.126304595098588</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6505116501999453</v>
+        <v>0.2249983589254612</v>
       </c>
       <c r="E7">
-        <v>0.4545859790077458</v>
+        <v>0.1261285890950745</v>
       </c>
       <c r="F7">
-        <v>4.485299877809638</v>
+        <v>5.685371367268488</v>
       </c>
       <c r="G7">
-        <v>0.0007961012730193913</v>
+        <v>0.002683395730320092</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4465466070037678</v>
+        <v>0.1265018946744334</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.292604957483718</v>
+        <v>1.639844627472939</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.071446273416061</v>
+        <v>2.227559060400999</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.730627526097294</v>
+        <v>3.241668170978073</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.8145036708768032</v>
+        <v>0.2611849629434175</v>
       </c>
       <c r="E8">
-        <v>0.5666777101236491</v>
+        <v>0.1526527051487747</v>
       </c>
       <c r="F8">
-        <v>5.213302681197291</v>
+        <v>5.776770348156504</v>
       </c>
       <c r="G8">
-        <v>0.0007714552393736232</v>
+        <v>0.00266905727114173</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5490584012848245</v>
+        <v>0.151960493949332</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.806072500201651</v>
+        <v>1.741817608507972</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.956431151297636</v>
+        <v>2.187911265799141</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.046527648081678</v>
+        <v>3.484197717918562</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.175507666330077</v>
+        <v>0.3337745525760738</v>
       </c>
       <c r="E9">
-        <v>0.8092568065085572</v>
+        <v>0.2050995078894289</v>
       </c>
       <c r="F9">
-        <v>6.873303260169905</v>
+        <v>5.989567191521104</v>
       </c>
       <c r="G9">
-        <v>0.0007232756798453215</v>
+        <v>0.002643609789433698</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7682593378404334</v>
+        <v>0.2018693338227138</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.913291700373009</v>
+        <v>1.951574718333006</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7471133409929323</v>
+        <v>2.116824163447774</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.124941464000244</v>
+        <v>3.672640947273976</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.483555795437326</v>
+        <v>0.3882564389307106</v>
       </c>
       <c r="E10">
-        <v>1.012740797847059</v>
+        <v>0.2439873438326288</v>
       </c>
       <c r="F10">
-        <v>8.327006729003386</v>
+        <v>6.167141899548511</v>
       </c>
       <c r="G10">
-        <v>0.0006867098414059986</v>
+        <v>0.002626515765267623</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.949849455289467</v>
+        <v>0.2385998833442784</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.832733551277443</v>
+        <v>2.111985074940037</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6052290175186634</v>
+        <v>2.068680068767478</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.65469911002134</v>
+        <v>3.760669081248864</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.639515642438056</v>
+        <v>0.4133269312012828</v>
       </c>
       <c r="E11">
-        <v>1.114760614768443</v>
+        <v>0.2617760934801083</v>
       </c>
       <c r="F11">
-        <v>9.070579279470792</v>
+        <v>6.252709816980541</v>
       </c>
       <c r="G11">
-        <v>0.0006693909735607627</v>
+        <v>0.002619081621218823</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.040226721238326</v>
+        <v>0.2553394092936685</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.289329121480534</v>
+        <v>2.186404504684333</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5439236465536617</v>
+        <v>2.04766984203016</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.862809150507928</v>
+        <v>3.79434017648839</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.701692701464538</v>
+        <v>0.4228645494701766</v>
       </c>
       <c r="E12">
-        <v>1.15526602332838</v>
+        <v>0.2685280520861681</v>
       </c>
       <c r="F12">
-        <v>9.367970430866478</v>
+        <v>6.285814985667287</v>
       </c>
       <c r="G12">
-        <v>0.000662679357351642</v>
+        <v>0.002616315249320049</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.075997105605211</v>
+        <v>0.2616839405433495</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.469693589611268</v>
+        <v>2.214799529581398</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5212554980149449</v>
+        <v>2.039842427182702</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.817617171735264</v>
+        <v>3.787073438647553</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.688145604837217</v>
+        <v>0.4208084521574165</v>
       </c>
       <c r="E13">
-        <v>1.146448518686086</v>
+        <v>0.2670731709945642</v>
       </c>
       <c r="F13">
-        <v>9.303136703102439</v>
+        <v>6.278653727566763</v>
       </c>
       <c r="G13">
-        <v>0.000664132773359725</v>
+        <v>0.002616908873947689</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.068215620365635</v>
+        <v>0.2603172614940092</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.430476935499769</v>
+        <v>2.208674540845095</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5261115389736233</v>
+        <v>2.041522466986358</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.67165667034925</v>
+        <v>3.763432441962038</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.644562344883553</v>
+        <v>0.4141106994173924</v>
       </c>
       <c r="E14">
-        <v>1.118051740219613</v>
+        <v>0.2623312563770526</v>
       </c>
       <c r="F14">
-        <v>9.094700045458183</v>
+        <v>6.255419239788949</v>
       </c>
       <c r="G14">
-        <v>0.0006688422757255833</v>
+        <v>0.002618853054888628</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.043135443343857</v>
+        <v>0.2558612575344625</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.304004161332671</v>
+        <v>2.188736257696121</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5420471897495887</v>
+        <v>2.047023292944257</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.58329684900508</v>
+        <v>3.748995667118834</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.618303620623578</v>
+        <v>0.4100139421557003</v>
       </c>
       <c r="E15">
-        <v>1.100920783581927</v>
+        <v>0.2594287950607992</v>
       </c>
       <c r="F15">
-        <v>8.969232560315874</v>
+        <v>6.241279345237103</v>
       </c>
       <c r="G15">
-        <v>0.0006717049941464496</v>
+        <v>0.00262005026176305</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.027990410610698</v>
+        <v>0.2531325977093104</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.227579297189664</v>
+        <v>2.176551528086122</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5518823769646843</v>
+        <v>2.050409487003428</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.091252819996896</v>
+        <v>3.666934927309796</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.47374630517055</v>
+        <v>0.3866240226110165</v>
       </c>
       <c r="E16">
-        <v>1.006302988305322</v>
+        <v>0.2428269231981943</v>
       </c>
       <c r="F16">
-        <v>8.280374009572768</v>
+        <v>6.161647366921414</v>
       </c>
       <c r="G16">
-        <v>0.000687823685427381</v>
+        <v>0.002627008451681686</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9441321980821016</v>
+        <v>0.2375066365852945</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.803814827646192</v>
+        <v>2.107151217023784</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6093069314825001</v>
+        <v>2.070071112674455</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.800556415045662</v>
+        <v>3.617187294196128</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.389618177520589</v>
+        <v>0.3723503757632045</v>
       </c>
       <c r="E17">
-        <v>0.9509833143006006</v>
+        <v>0.2326685476991912</v>
       </c>
       <c r="F17">
-        <v>7.881234527313637</v>
+        <v>6.114031889289635</v>
       </c>
       <c r="G17">
-        <v>0.0006975038940369391</v>
+        <v>0.00263136438687139</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.8949320200987501</v>
+        <v>0.2279293224287358</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.554830009583668</v>
+        <v>2.064951286352652</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6454138120357982</v>
+        <v>2.082361456855502</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.636900398108992</v>
+        <v>3.588790334913767</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.34265430155267</v>
+        <v>0.3641673387896844</v>
       </c>
       <c r="E18">
-        <v>0.9200149078426705</v>
+        <v>0.2268348904730573</v>
       </c>
       <c r="F18">
-        <v>7.659097390377411</v>
+        <v>6.087094566740262</v>
       </c>
       <c r="G18">
-        <v>0.0007030114623462721</v>
+        <v>0.002633902022018136</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8673314893216002</v>
+        <v>0.2224235101354282</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.415078677196334</v>
+        <v>2.040814932714397</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6664802121494802</v>
+        <v>2.089514342728666</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.582052045589251</v>
+        <v>3.579212646463361</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.326977334146108</v>
+        <v>0.3614012203136951</v>
       </c>
       <c r="E19">
-        <v>0.909663086926713</v>
+        <v>0.2248612421178677</v>
       </c>
       <c r="F19">
-        <v>7.585065277749209</v>
+        <v>6.078050895589996</v>
       </c>
       <c r="G19">
-        <v>0.0007048672251870287</v>
+        <v>0.00263476676708309</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8580959394373338</v>
+        <v>0.2205597815914047</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.368307561713834</v>
+        <v>2.032665951082606</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6736621985213915</v>
+        <v>2.091950562263751</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.831123343165814</v>
+        <v>3.622460562788149</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.39842130420061</v>
+        <v>0.3738670375607001</v>
       </c>
       <c r="E20">
-        <v>0.9567811508737094</v>
+        <v>0.2337489635499423</v>
       </c>
       <c r="F20">
-        <v>7.922929850122557</v>
+        <v>6.119053981945939</v>
       </c>
       <c r="G20">
-        <v>0.0006964799825478203</v>
+        <v>0.002630897358887364</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9000946522580051</v>
+        <v>0.22894854469682</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.580965238357408</v>
+        <v>2.069429431440199</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6415387626020177</v>
+        <v>2.081044450889241</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.714306516837951</v>
+        <v>3.770367192483775</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.657270619826448</v>
+        <v>0.4160767759514101</v>
       </c>
       <c r="E21">
-        <v>1.126336521927854</v>
+        <v>0.263723631470981</v>
       </c>
       <c r="F21">
-        <v>9.155453605572376</v>
+        <v>6.262224594750762</v>
       </c>
       <c r="G21">
-        <v>0.0006674636956545132</v>
+        <v>0.002618280681341899</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.050455764199683</v>
+        <v>0.2571699309281712</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.340930132178755</v>
+        <v>2.194586759706851</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5373508613074236</v>
+        <v>2.045404069090512</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.336757360189949</v>
+        <v>3.868998214399312</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.845324838917662</v>
+        <v>0.443920900098874</v>
       </c>
       <c r="E22">
-        <v>1.248496696583175</v>
+        <v>0.2834063536658817</v>
       </c>
       <c r="F22">
-        <v>10.05643420727077</v>
+        <v>6.359896063876477</v>
       </c>
       <c r="G22">
-        <v>0.0006475608188017956</v>
+        <v>0.002610319073694853</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.158100028173635</v>
+        <v>0.2756476901399481</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.882707066307148</v>
+        <v>2.277634504650507</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4725089827265663</v>
+        <v>2.022861493371128</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.999564265933884</v>
+        <v>3.816175306937453</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.742842403768407</v>
+        <v>0.4290354552786653</v>
       </c>
       <c r="E23">
-        <v>1.182023387770556</v>
+        <v>0.272892310927304</v>
       </c>
       <c r="F23">
-        <v>9.565023224115038</v>
+        <v>6.30738700070782</v>
       </c>
       <c r="G23">
-        <v>0.0006582942647012147</v>
+        <v>0.002614542470560797</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.099592948620085</v>
+        <v>0.2657822836360424</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.588538408961938</v>
+        <v>2.233194003009828</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5067831103583771</v>
+        <v>2.034824013872999</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.817293358639631</v>
+        <v>3.620075884238474</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.394437100125032</v>
+        <v>0.3731812831045147</v>
       </c>
       <c r="E24">
-        <v>0.9541573815219948</v>
+        <v>0.233260487329261</v>
       </c>
       <c r="F24">
-        <v>7.904056828086055</v>
+        <v>6.116782132344582</v>
       </c>
       <c r="G24">
-        <v>0.000696943068680876</v>
+        <v>0.00263110839837507</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8977585211748504</v>
+        <v>0.2284877534268475</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.569139066485093</v>
+        <v>2.067404473293948</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6432897185400464</v>
+        <v>2.081639598336935</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.674878415879164</v>
+        <v>3.416809514448516</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.072013607765598</v>
+        <v>0.313946792668105</v>
       </c>
       <c r="E25">
-        <v>0.7402196757653599</v>
+        <v>0.1908556167558118</v>
       </c>
       <c r="F25">
-        <v>6.391339869072794</v>
+        <v>5.928328319621272</v>
       </c>
       <c r="G25">
-        <v>0.0007364024025913767</v>
+        <v>0.00265021078121618</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7062038605391763</v>
+        <v>0.1883620061578455</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.599145493145727</v>
+        <v>1.893747989492681</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8018254571961201</v>
+        <v>2.135339665701409</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_130/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_130/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.274017668686611</v>
+        <v>3.903414137097343</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2710941420829158</v>
+        <v>0.8610792315843696</v>
       </c>
       <c r="E2">
-        <v>0.1598654156039032</v>
+        <v>0.5982721588150071</v>
       </c>
       <c r="F2">
-        <v>5.80377835155889</v>
+        <v>5.423659694952988</v>
       </c>
       <c r="G2">
-        <v>0.002665353917939985</v>
+        <v>0.000764823317352546</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1588548528935405</v>
+        <v>0.5778005361838865</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.770097524809216</v>
+        <v>2.950718050463422</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.177618771485403</v>
+        <v>0.9263076832970611</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.181425018440905</v>
+        <v>3.409623544631472</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.242474539260229</v>
+        <v>0.7285697817511618</v>
       </c>
       <c r="E3">
-        <v>0.1389773348360919</v>
+        <v>0.5081143064106968</v>
       </c>
       <c r="F3">
-        <v>5.727974780105598</v>
+        <v>4.829119786464844</v>
       </c>
       <c r="G3">
-        <v>0.00267629775453989</v>
+        <v>0.0007840972902016756</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1388565524998455</v>
+        <v>0.4956098150712904</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.68881301134553</v>
+        <v>2.537813585677554</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.207974208628858</v>
+        <v>1.014857582837127</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.126601116329141</v>
+        <v>3.117259777928723</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2250934461947907</v>
+        <v>0.6509309203288467</v>
       </c>
       <c r="E4">
-        <v>0.1261987174310235</v>
+        <v>0.4548744033641299</v>
       </c>
       <c r="F4">
-        <v>5.685594491156053</v>
+        <v>4.487131814086922</v>
       </c>
       <c r="G4">
-        <v>0.002683356131724709</v>
+        <v>0.0007960353204390369</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1265694494395433</v>
+        <v>0.4468115420085041</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.640109468778036</v>
+        <v>2.293925890063974</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.227450041071972</v>
+        <v>1.071132641815257</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.104765837960485</v>
+        <v>3.000413754211309</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.218056357906903</v>
+        <v>0.6200566259365701</v>
       </c>
       <c r="E5">
-        <v>0.1210017800359893</v>
+        <v>0.4336076084419744</v>
       </c>
       <c r="F5">
-        <v>5.669359958579889</v>
+        <v>4.352697664309659</v>
       </c>
       <c r="G5">
-        <v>0.002686318072468217</v>
+        <v>0.0008009380712885786</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1215593185319364</v>
+        <v>0.4272594391735254</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.620560928572331</v>
+        <v>2.196544766369897</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.235596785296302</v>
+        <v>1.094524099605213</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.10117054362496</v>
+        <v>2.981138925225935</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2168905576006352</v>
+        <v>0.6149716603161153</v>
       </c>
       <c r="E6">
-        <v>0.1201394263107431</v>
+        <v>0.4300994903231654</v>
       </c>
       <c r="F6">
-        <v>5.666726464126214</v>
+        <v>4.330649905968016</v>
       </c>
       <c r="G6">
-        <v>0.002686815081825156</v>
+        <v>0.0008017547678453743</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1207271776583525</v>
+        <v>0.4240307552791762</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.617332808472526</v>
+        <v>2.180484893628943</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.236962229036664</v>
+        <v>1.098435419988302</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.126304595098588</v>
+        <v>3.115675176517243</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2249983589254612</v>
+        <v>0.6505116502001158</v>
       </c>
       <c r="E7">
-        <v>0.1261285890950745</v>
+        <v>0.4545859790077031</v>
       </c>
       <c r="F7">
-        <v>5.685371367268488</v>
+        <v>4.485299877809723</v>
       </c>
       <c r="G7">
-        <v>0.002683395730320092</v>
+        <v>0.0007961012730476495</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1265018946744334</v>
+        <v>0.4465466070037962</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.639844627472939</v>
+        <v>2.29260495748369</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.227559060400999</v>
+        <v>1.071446273416154</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.241668170978073</v>
+        <v>3.730627526097408</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2611849629434175</v>
+        <v>0.8145036708769169</v>
       </c>
       <c r="E8">
-        <v>0.1526527051487747</v>
+        <v>0.5666777101236633</v>
       </c>
       <c r="F8">
-        <v>5.776770348156504</v>
+        <v>5.213302681197291</v>
       </c>
       <c r="G8">
-        <v>0.00266905727114173</v>
+        <v>0.000771455239515996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.151960493949332</v>
+        <v>0.5490584012847677</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.741817608507972</v>
+        <v>2.806072500201708</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.187911265799141</v>
+        <v>0.9564311512976147</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.484197717918562</v>
+        <v>5.046527648081849</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3337745525760738</v>
+        <v>1.175507666330475</v>
       </c>
       <c r="E9">
-        <v>0.2050995078894289</v>
+        <v>0.8092568065085288</v>
       </c>
       <c r="F9">
-        <v>5.989567191521104</v>
+        <v>6.873303260169934</v>
       </c>
       <c r="G9">
-        <v>0.002643609789433698</v>
+        <v>0.0007232756798385647</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2018693338227138</v>
+        <v>0.7682593378403766</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.951574718333006</v>
+        <v>3.913291700373065</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.116824163447774</v>
+        <v>0.7471133409929074</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.672640947273976</v>
+        <v>6.124941464000301</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3882564389307106</v>
+        <v>1.483555795436899</v>
       </c>
       <c r="E10">
-        <v>0.2439873438326288</v>
+        <v>1.012740797847002</v>
       </c>
       <c r="F10">
-        <v>6.167141899548511</v>
+        <v>8.327006729003358</v>
       </c>
       <c r="G10">
-        <v>0.002626515765267623</v>
+        <v>0.0006867098415193063</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2385998833442784</v>
+        <v>0.9498494552893959</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.111985074940037</v>
+        <v>4.83273355127767</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.068680068767478</v>
+        <v>0.6052290175186101</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.760669081248864</v>
+        <v>6.654699110021397</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4133269312012828</v>
+        <v>1.639515642438255</v>
       </c>
       <c r="E11">
-        <v>0.2617760934801083</v>
+        <v>1.114760614768429</v>
       </c>
       <c r="F11">
-        <v>6.252709816980541</v>
+        <v>9.070579279470792</v>
       </c>
       <c r="G11">
-        <v>0.002619081621218823</v>
+        <v>0.0006693909736622982</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2553394092936685</v>
+        <v>1.040226721238412</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.186404504684333</v>
+        <v>5.289329121480591</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.04766984203016</v>
+        <v>0.5439236465536581</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.79434017648839</v>
+        <v>6.862809150507871</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4228645494701766</v>
+        <v>1.70169270146431</v>
       </c>
       <c r="E12">
-        <v>0.2685280520861681</v>
+        <v>1.155266023328409</v>
       </c>
       <c r="F12">
-        <v>6.285814985667287</v>
+        <v>9.36797043086645</v>
       </c>
       <c r="G12">
-        <v>0.002616315249320049</v>
+        <v>0.0006626793571338441</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2616839405433495</v>
+        <v>1.075997105605126</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.214799529581398</v>
+        <v>5.469693589611325</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.039842427182702</v>
+        <v>0.521255498014952</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.787073438647553</v>
+        <v>6.817617171735151</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4208084521574165</v>
+        <v>1.688145604837246</v>
       </c>
       <c r="E13">
-        <v>0.2670731709945642</v>
+        <v>1.146448518686071</v>
       </c>
       <c r="F13">
-        <v>6.278653727566763</v>
+        <v>9.30313670310241</v>
       </c>
       <c r="G13">
-        <v>0.002616908873947689</v>
+        <v>0.000664132773360997</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2603172614940092</v>
+        <v>1.06821562036572</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.208674540845095</v>
+        <v>5.430476935499598</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.041522466986358</v>
+        <v>0.526111538973673</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.763432441962038</v>
+        <v>6.671656670349137</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4141106994173924</v>
+        <v>1.644562344883781</v>
       </c>
       <c r="E14">
-        <v>0.2623312563770526</v>
+        <v>1.118051740219641</v>
       </c>
       <c r="F14">
-        <v>6.255419239788949</v>
+        <v>9.094700045458183</v>
       </c>
       <c r="G14">
-        <v>0.002618853054888628</v>
+        <v>0.0006688422757283684</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2558612575344625</v>
+        <v>1.043135443343886</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.188736257696121</v>
+        <v>5.304004161332614</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.047023292944257</v>
+        <v>0.5420471897495815</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.748995667118834</v>
+        <v>6.58329684900508</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4100139421557003</v>
+        <v>1.618303620623607</v>
       </c>
       <c r="E15">
-        <v>0.2594287950607992</v>
+        <v>1.100920783581913</v>
       </c>
       <c r="F15">
-        <v>6.241279345237103</v>
+        <v>8.969232560315874</v>
       </c>
       <c r="G15">
-        <v>0.00262005026176305</v>
+        <v>0.0006717049941449254</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2531325977093104</v>
+        <v>1.027990410610641</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.176551528086122</v>
+        <v>5.22757929718972</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.050409487003428</v>
+        <v>0.5518823769646772</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.666934927309796</v>
+        <v>6.091252819996726</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3866240226110165</v>
+        <v>1.473746305171005</v>
       </c>
       <c r="E16">
-        <v>0.2428269231981943</v>
+        <v>1.006302988305393</v>
       </c>
       <c r="F16">
-        <v>6.161647366921414</v>
+        <v>8.280374009572768</v>
       </c>
       <c r="G16">
-        <v>0.002627008451681686</v>
+        <v>0.0006878236854212686</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2375066365852945</v>
+        <v>0.9441321980821158</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.107151217023784</v>
+        <v>4.803814827646192</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.070071112674455</v>
+        <v>0.6093069314825037</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.617187294196128</v>
+        <v>5.800556415045833</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3723503757632045</v>
+        <v>1.389618177520617</v>
       </c>
       <c r="E17">
-        <v>0.2326685476991912</v>
+        <v>0.9509833143006006</v>
       </c>
       <c r="F17">
-        <v>6.114031889289635</v>
+        <v>7.881234527313637</v>
       </c>
       <c r="G17">
-        <v>0.00263136438687139</v>
+        <v>0.0006975038939271862</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2279293224287358</v>
+        <v>0.8949320200987501</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.064951286352652</v>
+        <v>4.554830009583554</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.082361456855502</v>
+        <v>0.6454138120357769</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.588790334913767</v>
+        <v>5.636900398108935</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3641673387896844</v>
+        <v>1.342654301552898</v>
       </c>
       <c r="E18">
-        <v>0.2268348904730573</v>
+        <v>0.9200149078426989</v>
       </c>
       <c r="F18">
-        <v>6.087094566740262</v>
+        <v>7.65909739037744</v>
       </c>
       <c r="G18">
-        <v>0.002633902022018136</v>
+        <v>0.0007030114623502398</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2224235101354282</v>
+        <v>0.8673314893216713</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.040814932714397</v>
+        <v>4.415078677196448</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.089514342728666</v>
+        <v>0.6664802121495441</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.579212646463361</v>
+        <v>5.58205204558908</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3614012203136951</v>
+        <v>1.326977334146108</v>
       </c>
       <c r="E19">
-        <v>0.2248612421178677</v>
+        <v>0.9096630869266846</v>
       </c>
       <c r="F19">
-        <v>6.078050895589996</v>
+        <v>7.585065277749095</v>
       </c>
       <c r="G19">
-        <v>0.00263476676708309</v>
+        <v>0.0007048672251940773</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2205597815914047</v>
+        <v>0.8580959394371632</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.032665951082606</v>
+        <v>4.368307561713777</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.091950562263751</v>
+        <v>0.6736621985213382</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.622460562788149</v>
+        <v>5.831123343165757</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3738670375607001</v>
+        <v>1.398421304200838</v>
       </c>
       <c r="E20">
-        <v>0.2337489635499423</v>
+        <v>0.9567811508737094</v>
       </c>
       <c r="F20">
-        <v>6.119053981945939</v>
+        <v>7.922929850122529</v>
       </c>
       <c r="G20">
-        <v>0.002630897358887364</v>
+        <v>0.0006964799826504877</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.22894854469682</v>
+        <v>0.9000946522579625</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.069429431440199</v>
+        <v>4.580965238357464</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.081044450889241</v>
+        <v>0.6415387626020674</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.770367192483775</v>
+        <v>6.714306516837837</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4160767759514101</v>
+        <v>1.657270619826846</v>
       </c>
       <c r="E21">
-        <v>0.263723631470981</v>
+        <v>1.126336521927797</v>
       </c>
       <c r="F21">
-        <v>6.262224594750762</v>
+        <v>9.155453605572347</v>
       </c>
       <c r="G21">
-        <v>0.002618280681341899</v>
+        <v>0.0006674636958657131</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2571699309281712</v>
+        <v>1.050455764199683</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.194586759706851</v>
+        <v>5.340930132178642</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.045404069090512</v>
+        <v>0.537350861307452</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.868998214399312</v>
+        <v>7.336757360189836</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.443920900098874</v>
+        <v>1.845324838917634</v>
       </c>
       <c r="E22">
-        <v>0.2834063536658817</v>
+        <v>1.248496696583175</v>
       </c>
       <c r="F22">
-        <v>6.359896063876477</v>
+        <v>10.05643420727088</v>
       </c>
       <c r="G22">
-        <v>0.002610319073694853</v>
+        <v>0.0006475608188975284</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2756476901399481</v>
+        <v>1.158100028173607</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.277634504650507</v>
+        <v>5.882707066307205</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.022861493371128</v>
+        <v>0.4725089827265521</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.816175306937453</v>
+        <v>6.99956426593377</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4290354552786653</v>
+        <v>1.742842403768634</v>
       </c>
       <c r="E23">
-        <v>0.272892310927304</v>
+        <v>1.182023387770485</v>
       </c>
       <c r="F23">
-        <v>6.30738700070782</v>
+        <v>9.565023224115095</v>
       </c>
       <c r="G23">
-        <v>0.002614542470560797</v>
+        <v>0.0006582942647000698</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2657822836360424</v>
+        <v>1.099592948620142</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.233194003009828</v>
+        <v>5.588538408962165</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.034824013872999</v>
+        <v>0.50678311035837</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.620075884238474</v>
+        <v>5.817293358639461</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3731812831045147</v>
+        <v>1.394437100125401</v>
       </c>
       <c r="E24">
-        <v>0.233260487329261</v>
+        <v>0.9541573815218953</v>
       </c>
       <c r="F24">
-        <v>6.116782132344582</v>
+        <v>7.904056828086055</v>
       </c>
       <c r="G24">
-        <v>0.00263110839837507</v>
+        <v>0.0006969430688957735</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2284877534268475</v>
+        <v>0.8977585211746373</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.067404473293948</v>
+        <v>4.569139066484979</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.081639598336935</v>
+        <v>0.6432897185400464</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.416809514448516</v>
+        <v>4.674878415879107</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.313946792668105</v>
+        <v>1.0720136077652</v>
       </c>
       <c r="E25">
-        <v>0.1908556167558118</v>
+        <v>0.7402196757653456</v>
       </c>
       <c r="F25">
-        <v>5.928328319621272</v>
+        <v>6.391339869072766</v>
       </c>
       <c r="G25">
-        <v>0.00265021078121618</v>
+        <v>0.0007364024024812929</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1883620061578455</v>
+        <v>0.7062038605390484</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.893747989492681</v>
+        <v>3.599145493145727</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.135339665701409</v>
+        <v>0.801825457196113</v>
       </c>
       <c r="O25">
         <v>0</v>
